--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jean-jose/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jean-jose/Documents/DevOps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F289D98-6833-0F4F-BEAC-0876D6986739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A0789D-2718-674C-A7D0-FE85D2B8C2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{34F6A6DC-AB3E-D34C-9157-858950CB6188}"/>
   </bookViews>
@@ -72,8 +72,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +429,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="B13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,16 +492,16 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>15</v>
       </c>
     </row>
@@ -538,10 +547,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>4</v>
       </c>
     </row>
